--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T11:51:34+00:00</t>
+    <t>2023-02-06T14:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T14:36:15+00:00</t>
+    <t>2023-02-08T06:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T06:08:33+00:00</t>
+    <t>2023-02-08T11:31:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T11:31:48+00:00</t>
+    <t>2023-02-08T12:31:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T12:31:04+00:00</t>
+    <t>2023-02-10T13:23:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:23:24+00:00</t>
+    <t>2023-02-10T14:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:00:13+00:00</t>
+    <t>2023-02-13T07:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T07:50:39+00:00</t>
+    <t>2023-02-13T11:48:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:48:16+00:00</t>
+    <t>2023-02-13T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T14:52:44+00:00</t>
+    <t>2023-02-13T15:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:10:15+00:00</t>
+    <t>2023-02-13T15:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:20:12+00:00</t>
+    <t>2023-02-13T15:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-14T06:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T09:55:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:18:24+00:00</t>
+    <t>2023-02-15T10:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:40:50+00:00</t>
+    <t>2023-02-27T06:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile represents the facility the patient is being transferred from</t>
+    <t>This profile represents the facility the patient is being transferred from.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:44:17+00:00</t>
+    <t>2023-02-27T10:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:45:48+00:00</t>
+    <t>2023-02-27T12:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:41:19+00:00</t>
+    <t>2023-02-27T14:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T14:23:13+00:00</t>
+    <t>2023-02-28T11:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:11:02+00:00</t>
+    <t>2023-03-01T08:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
+++ b/branches/master/StructureDefinition-transferring-facility-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
